--- a/doc/外部設計/02_外部設計書_E3.xlsx
+++ b/doc/外部設計/02_外部設計書_E3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E3\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591C7A11-D154-4705-9065-FCD00429F3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D75F39-5C71-4F9A-BC88-4EF2AFEDA3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="722" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="722" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="9" r:id="rId1"/>
@@ -2437,10 +2437,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>まいすたー</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>新規登録画面</t>
     <rPh sb="0" eb="6">
       <t>シンキトウロクガメン</t>
@@ -2550,6 +2546,10 @@
   </si>
   <si>
     <t>Blob</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>マイスター</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3020,6 +3020,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3073,7 +3079,13 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3084,18 +3096,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8263,204 +8263,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="53" t="s">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="56">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="58">
         <v>45453</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="57" t="s">
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="61">
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="40">
         <v>45454</v>
       </c>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="45"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -11098,6 +11098,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
@@ -11114,7 +11115,6 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:AE3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11130,8 +11130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120AB566-6AED-4110-B418-E9615DD6FD9C}">
   <dimension ref="A1:BB121"/>
   <sheetViews>
-    <sheetView topLeftCell="C88" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y101" sqref="Y101"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11144,208 +11144,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
+    </row>
+    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>292</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
-    </row>
-    <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
+    </row>
+    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
-    </row>
-    <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="56">
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="58">
         <v>45453</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="61">
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="40"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="42"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="45"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -14758,7 +14758,7 @@
       <c r="Q90" s="15"/>
       <c r="R90" s="17"/>
       <c r="S90" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T90" s="14" t="s">
         <v>18</v>
@@ -14823,7 +14823,7 @@
       <c r="Q91" s="15"/>
       <c r="R91" s="17"/>
       <c r="S91" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T91" s="33">
         <v>5</v>
@@ -14888,7 +14888,7 @@
       <c r="Q92" s="15"/>
       <c r="R92" s="17"/>
       <c r="S92" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T92" s="14">
         <v>8</v>
@@ -14953,7 +14953,7 @@
       <c r="Q93" s="15"/>
       <c r="R93" s="17"/>
       <c r="S93" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T93" s="33">
         <v>4</v>
@@ -15018,7 +15018,7 @@
       <c r="Q94" s="15"/>
       <c r="R94" s="17"/>
       <c r="S94" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T94" s="14">
         <v>0</v>
@@ -15083,7 +15083,7 @@
       <c r="Q95" s="15"/>
       <c r="R95" s="17"/>
       <c r="S95" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T95" s="14">
         <v>0</v>
@@ -15148,7 +15148,7 @@
       <c r="Q96" s="15"/>
       <c r="R96" s="17"/>
       <c r="S96" s="15" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T96" s="14">
         <v>0</v>
@@ -15213,7 +15213,7 @@
       <c r="Q97" s="15"/>
       <c r="R97" s="17"/>
       <c r="S97" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T97" s="14">
         <v>0</v>
@@ -16282,11 +16282,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -16299,6 +16294,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16314,7 +16314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D28EECE5-40C0-4108-8DE4-6C1218A67ED0}">
   <dimension ref="A1:AO75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
@@ -16328,208 +16328,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="56">
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="58">
         <v>45453</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="61">
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="40"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="42"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="45"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -18652,7 +18652,7 @@
       <c r="Q65" s="15"/>
       <c r="R65" s="17"/>
       <c r="S65" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T65" s="14" t="s">
         <v>18</v>
@@ -19085,7 +19085,7 @@
       <c r="Q73" s="15"/>
       <c r="R73" s="17"/>
       <c r="S73" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="T73" s="14"/>
       <c r="U73" s="17"/>
@@ -19138,7 +19138,7 @@
       <c r="Q74" s="15"/>
       <c r="R74" s="17"/>
       <c r="S74" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T74" s="14"/>
       <c r="U74" s="17"/>
@@ -19208,11 +19208,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -19225,6 +19220,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19240,7 +19240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57F16B4-726F-4BA8-B95F-7E291C7E7260}">
   <dimension ref="A1:AO89"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="S81" sqref="S81"/>
     </sheetView>
   </sheetViews>
@@ -19254,210 +19254,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="56">
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="58">
         <v>45453</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="61">
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="40"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="42"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42" t="s">
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="45"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -19611,16 +19611,16 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="64" t="s">
+      <c r="R9" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -19656,14 +19656,14 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
@@ -22580,7 +22580,7 @@
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
       <c r="S79" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T79" s="14" t="s">
         <v>18</v>
@@ -22622,11 +22622,11 @@
         <v>1</v>
       </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="62" t="s">
+      <c r="E80" s="59" t="s">
         <v>216</v>
       </c>
-      <c r="F80" s="62"/>
-      <c r="G80" s="63"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="60"/>
       <c r="H80" s="14" t="s">
         <v>217</v>
       </c>
@@ -22673,11 +22673,11 @@
         <v>2</v>
       </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="62" t="s">
+      <c r="E81" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="F81" s="62"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="60"/>
       <c r="H81" s="29" t="s">
         <v>220</v>
       </c>
@@ -22690,13 +22690,13 @@
       <c r="M81" s="15"/>
       <c r="N81" s="17"/>
       <c r="O81" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
       <c r="S81" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T81" s="14"/>
       <c r="U81" s="17"/>
@@ -22710,7 +22710,7 @@
       <c r="AC81" s="15"/>
       <c r="AD81" s="17"/>
       <c r="AE81" s="33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF81" s="34"/>
       <c r="AG81" s="34"/>
@@ -22730,11 +22730,11 @@
         <v>3</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="62" t="s">
+      <c r="E82" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="F82" s="62"/>
-      <c r="G82" s="63"/>
+      <c r="F82" s="59"/>
+      <c r="G82" s="60"/>
       <c r="H82" s="14" t="s">
         <v>222</v>
       </c>
@@ -22753,7 +22753,7 @@
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
       <c r="S82" s="15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="T82" s="14"/>
       <c r="U82" s="17"/>
@@ -22789,11 +22789,11 @@
         <v>4</v>
       </c>
       <c r="D83" s="14"/>
-      <c r="E83" s="62" t="s">
+      <c r="E83" s="59" t="s">
         <v>223</v>
       </c>
-      <c r="F83" s="62"/>
-      <c r="G83" s="63"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="60"/>
       <c r="H83" s="14" t="s">
         <v>163</v>
       </c>
@@ -22812,7 +22812,7 @@
       <c r="Q83" s="15"/>
       <c r="R83" s="17"/>
       <c r="S83" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="T83" s="14">
         <v>0</v>
@@ -22852,11 +22852,11 @@
         <v>5</v>
       </c>
       <c r="D84" s="14"/>
-      <c r="E84" s="62" t="s">
+      <c r="E84" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="62"/>
-      <c r="G84" s="63"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="60"/>
       <c r="H84" s="14" t="s">
         <v>165</v>
       </c>
@@ -22875,7 +22875,7 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
       <c r="S84" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T84" s="14">
         <v>0</v>
@@ -22915,11 +22915,11 @@
         <v>6</v>
       </c>
       <c r="D85" s="14"/>
-      <c r="E85" s="62" t="s">
+      <c r="E85" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="F85" s="62"/>
-      <c r="G85" s="63"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="60"/>
       <c r="H85" s="14" t="s">
         <v>169</v>
       </c>
@@ -22938,7 +22938,7 @@
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
       <c r="S85" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="T85" s="14">
         <v>0</v>
@@ -22978,11 +22978,11 @@
         <v>7</v>
       </c>
       <c r="D86" s="14"/>
-      <c r="E86" s="62" t="s">
+      <c r="E86" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="F86" s="62"/>
-      <c r="G86" s="63"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="60"/>
       <c r="H86" s="14" t="s">
         <v>228</v>
       </c>
@@ -23031,11 +23031,11 @@
         <v>8</v>
       </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="62" t="s">
+      <c r="E87" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="F87" s="62"/>
-      <c r="G87" s="63"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="60"/>
       <c r="H87" s="14" t="s">
         <v>231</v>
       </c>
@@ -23082,11 +23082,11 @@
         <v>9</v>
       </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="62" t="s">
+      <c r="E88" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="F88" s="62"/>
-      <c r="G88" s="63"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="60"/>
       <c r="H88" s="29" t="s">
         <v>233</v>
       </c>
@@ -23114,18 +23114,18 @@
       <c r="AB88" s="14"/>
       <c r="AC88" s="15"/>
       <c r="AD88" s="17"/>
-      <c r="AE88" s="58" t="s">
+      <c r="AE88" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="AF88" s="59"/>
-      <c r="AG88" s="59"/>
-      <c r="AH88" s="59"/>
-      <c r="AI88" s="59"/>
-      <c r="AJ88" s="59"/>
-      <c r="AK88" s="59"/>
-      <c r="AL88" s="59"/>
-      <c r="AM88" s="59"/>
-      <c r="AN88" s="60"/>
+      <c r="AF88" s="63"/>
+      <c r="AG88" s="63"/>
+      <c r="AH88" s="63"/>
+      <c r="AI88" s="63"/>
+      <c r="AJ88" s="63"/>
+      <c r="AK88" s="63"/>
+      <c r="AL88" s="63"/>
+      <c r="AM88" s="63"/>
+      <c r="AN88" s="64"/>
       <c r="AO88" s="7"/>
     </row>
     <row r="89" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23173,19 +23173,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:J4"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:AO1"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="R9:Y10"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
     <mergeCell ref="AE88:AN88"/>
     <mergeCell ref="AI2:AO2"/>
     <mergeCell ref="K3:M3"/>
@@ -23201,6 +23188,19 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AO4"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="R9:Y10"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AO1"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23228,208 +23228,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="56">
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="58">
         <v>45453</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="61">
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="40"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="42"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="45"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -26547,7 +26547,7 @@
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
       <c r="S79" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T79" s="14" t="s">
         <v>18</v>
@@ -26814,7 +26814,7 @@
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
       <c r="S84" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T84" s="14"/>
       <c r="U84" s="17"/>
@@ -27989,11 +27989,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -28006,6 +28001,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -28033,208 +28033,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="56">
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="58">
         <v>45453</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="61">
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="40"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="42"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="45"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -31368,7 +31368,7 @@
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
       <c r="S79" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T79" s="14" t="s">
         <v>18</v>
@@ -31482,7 +31482,7 @@
       <c r="Q81" s="15"/>
       <c r="R81" s="17"/>
       <c r="S81" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T81" s="14"/>
       <c r="U81" s="17"/>
@@ -31541,7 +31541,7 @@
       <c r="Q82" s="15"/>
       <c r="R82" s="17"/>
       <c r="S82" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T82" s="14"/>
       <c r="U82" s="17"/>
@@ -31698,7 +31698,7 @@
       <c r="Q85" s="15"/>
       <c r="R85" s="17"/>
       <c r="S85" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T85" s="14"/>
       <c r="U85" s="17"/>
@@ -32812,11 +32812,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -32829,6 +32824,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32856,208 +32856,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="50"/>
-      <c r="AO1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="53"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="52" t="s">
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="53" t="s">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="54"/>
-      <c r="AO2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="56">
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="58">
         <v>45453</v>
       </c>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="57" t="s">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="57"/>
-      <c r="AI3" s="61">
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="40">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39"/>
-      <c r="AO3" s="40"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="42"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44"/>
+      <c r="AO4" s="45"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -36149,7 +36149,7 @@
       <c r="Q79" s="15"/>
       <c r="R79" s="17"/>
       <c r="S79" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T79" s="14" t="s">
         <v>18</v>
@@ -36214,7 +36214,7 @@
       <c r="Q80" s="15"/>
       <c r="R80" s="17"/>
       <c r="S80" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T80" s="14">
         <v>0</v>
@@ -37547,11 +37547,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -37564,6 +37559,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:W3"/>
     <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37589,204 +37589,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="53" t="s">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="56">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="58">
         <v>45453</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="57" t="s">
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="61">
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="40">
         <v>45454</v>
       </c>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="45"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -40420,11 +40420,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -40437,6 +40432,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -40462,200 +40462,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="50" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="50"/>
-      <c r="AA1" s="50"/>
-      <c r="AB1" s="50"/>
-      <c r="AC1" s="50"/>
-      <c r="AD1" s="50"/>
-      <c r="AE1" s="50"/>
-      <c r="AF1" s="50"/>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="50"/>
-      <c r="AK1" s="50"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="50"/>
-      <c r="AN1" s="51"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="52"/>
+      <c r="AD1" s="52"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="53"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="52" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52" t="s">
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52" t="s">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="52"/>
-      <c r="AA2" s="52"/>
-      <c r="AB2" s="52"/>
-      <c r="AC2" s="52"/>
-      <c r="AD2" s="52"/>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="53" t="s">
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="54"/>
-      <c r="AJ2" s="54"/>
-      <c r="AK2" s="54"/>
-      <c r="AL2" s="54"/>
-      <c r="AM2" s="54"/>
-      <c r="AN2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="52" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52" t="s">
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52" t="s">
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="56">
+      <c r="X3" s="54"/>
+      <c r="Y3" s="58">
         <v>45453</v>
       </c>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="57" t="s">
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="57"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="40"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="41" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="44"/>
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="44"/>
+      <c r="AH4" s="44"/>
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="45"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -45092,6 +45092,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -45108,7 +45109,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/外部設計/02_外部設計書_E3.xlsx
+++ b/doc/外部設計/02_外部設計書_E3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E3\doc\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D75F39-5C71-4F9A-BC88-4EF2AFEDA3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E98D0A7-1B22-4888-A417-E9DBFD796537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="722" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="722" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="9" r:id="rId1"/>
@@ -3019,6 +3019,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3064,9 +3070,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3076,8 +3079,14 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3088,15 +3097,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3104,6 +3104,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFBF0B2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5804,9 +5809,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>232834</xdr:colOff>
+      <xdr:colOff>6428</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>42331</xdr:rowOff>
+      <xdr:rowOff>93016</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="543739" cy="792525"/>
     <xdr:sp macro="" textlink="">
@@ -5822,7 +5827,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1741594" y="5757331"/>
+          <a:off x="1530428" y="5808016"/>
           <a:ext cx="543739" cy="792525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5993,6 +5998,76 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>130117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>78278</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC51CBE1-0200-40DE-932E-471A9E4A382B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2020454" y="5845117"/>
+          <a:ext cx="2629824" cy="233564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FBF0B2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>登録ボタンを押すとメイン画面に遷移します</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6518,6 +6593,76 @@
               </a:solidFill>
             </a:rPr>
             <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C449F947-BE13-D604-7F82-11F80A8F97DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4053840" y="6333490"/>
+          <a:ext cx="2689860" cy="288290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FBF0B2"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000"/>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000"/>
+            <a:t>登録ボタンを押すとメイン画面に遷移します</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8263,204 +8408,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="55"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>264</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54" t="s">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55" t="s">
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="58"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="58">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="39">
         <v>45453</v>
       </c>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40">
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42">
         <v>45454</v>
       </c>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="47"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -11098,11 +11243,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -11115,6 +11255,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11130,7 +11275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120AB566-6AED-4110-B418-E9615DD6FD9C}">
   <dimension ref="A1:BB121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:AO1"/>
     </sheetView>
   </sheetViews>
@@ -11144,208 +11289,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="56" t="s">
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="58">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39">
         <v>45453</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="39" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40">
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="42"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="47"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -16282,6 +16427,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -16298,7 +16444,6 @@
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16328,208 +16473,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="56" t="s">
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="58">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39">
         <v>45453</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="39" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40">
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="42"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="47"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -19208,6 +19353,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -19224,7 +19370,6 @@
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -19254,210 +19399,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="56" t="s">
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="58">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39">
         <v>45453</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="39" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40">
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="42"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44" t="s">
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="47"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -19611,16 +19756,16 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="61" t="s">
+      <c r="R9" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -19656,14 +19801,14 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="8"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
@@ -22622,11 +22767,11 @@
         <v>1</v>
       </c>
       <c r="D80" s="14"/>
-      <c r="E80" s="59" t="s">
+      <c r="E80" s="62" t="s">
         <v>216</v>
       </c>
-      <c r="F80" s="59"/>
-      <c r="G80" s="60"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
       <c r="H80" s="14" t="s">
         <v>217</v>
       </c>
@@ -22673,11 +22818,11 @@
         <v>2</v>
       </c>
       <c r="D81" s="14"/>
-      <c r="E81" s="59" t="s">
+      <c r="E81" s="62" t="s">
         <v>219</v>
       </c>
-      <c r="F81" s="59"/>
-      <c r="G81" s="60"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="63"/>
       <c r="H81" s="29" t="s">
         <v>220</v>
       </c>
@@ -22730,11 +22875,11 @@
         <v>3</v>
       </c>
       <c r="D82" s="14"/>
-      <c r="E82" s="59" t="s">
+      <c r="E82" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="F82" s="59"/>
-      <c r="G82" s="60"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
       <c r="H82" s="14" t="s">
         <v>222</v>
       </c>
@@ -22789,11 +22934,11 @@
         <v>4</v>
       </c>
       <c r="D83" s="14"/>
-      <c r="E83" s="59" t="s">
+      <c r="E83" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="F83" s="59"/>
-      <c r="G83" s="60"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="63"/>
       <c r="H83" s="14" t="s">
         <v>163</v>
       </c>
@@ -22852,11 +22997,11 @@
         <v>5</v>
       </c>
       <c r="D84" s="14"/>
-      <c r="E84" s="59" t="s">
+      <c r="E84" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="59"/>
-      <c r="G84" s="60"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="14" t="s">
         <v>165</v>
       </c>
@@ -22915,11 +23060,11 @@
         <v>6</v>
       </c>
       <c r="D85" s="14"/>
-      <c r="E85" s="59" t="s">
+      <c r="E85" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="F85" s="59"/>
-      <c r="G85" s="60"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="63"/>
       <c r="H85" s="14" t="s">
         <v>169</v>
       </c>
@@ -22978,11 +23123,11 @@
         <v>7</v>
       </c>
       <c r="D86" s="14"/>
-      <c r="E86" s="59" t="s">
+      <c r="E86" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="F86" s="59"/>
-      <c r="G86" s="60"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
       <c r="H86" s="14" t="s">
         <v>228</v>
       </c>
@@ -23031,11 +23176,11 @@
         <v>8</v>
       </c>
       <c r="D87" s="14"/>
-      <c r="E87" s="59" t="s">
+      <c r="E87" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="F87" s="59"/>
-      <c r="G87" s="60"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="63"/>
       <c r="H87" s="14" t="s">
         <v>231</v>
       </c>
@@ -23082,11 +23227,11 @@
         <v>9</v>
       </c>
       <c r="D88" s="14"/>
-      <c r="E88" s="59" t="s">
+      <c r="E88" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="F88" s="59"/>
-      <c r="G88" s="60"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
       <c r="H88" s="29" t="s">
         <v>233</v>
       </c>
@@ -23114,18 +23259,18 @@
       <c r="AB88" s="14"/>
       <c r="AC88" s="15"/>
       <c r="AD88" s="17"/>
-      <c r="AE88" s="62" t="s">
+      <c r="AE88" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="AF88" s="63"/>
-      <c r="AG88" s="63"/>
-      <c r="AH88" s="63"/>
-      <c r="AI88" s="63"/>
-      <c r="AJ88" s="63"/>
-      <c r="AK88" s="63"/>
-      <c r="AL88" s="63"/>
-      <c r="AM88" s="63"/>
-      <c r="AN88" s="64"/>
+      <c r="AF88" s="60"/>
+      <c r="AG88" s="60"/>
+      <c r="AH88" s="60"/>
+      <c r="AI88" s="60"/>
+      <c r="AJ88" s="60"/>
+      <c r="AK88" s="60"/>
+      <c r="AL88" s="60"/>
+      <c r="AM88" s="60"/>
+      <c r="AN88" s="61"/>
       <c r="AO88" s="7"/>
     </row>
     <row r="89" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -23173,6 +23318,19 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AO1"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="R9:Y10"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
     <mergeCell ref="AE88:AN88"/>
     <mergeCell ref="AI2:AO2"/>
     <mergeCell ref="K3:M3"/>
@@ -23188,19 +23346,6 @@
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AO4"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="R9:Y10"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="A1:J4"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:AO1"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -23216,8 +23361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA81CA0-2909-4031-A252-0EDA75EC2828}">
   <dimension ref="A1:AO110"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:W3"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23228,208 +23373,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="56" t="s">
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="58">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39">
         <v>45453</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="39" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40">
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="42"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="47"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -27989,6 +28134,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -28005,7 +28151,6 @@
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -28021,8 +28166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E17230C-C2AC-4A2C-A60C-BBEA7E2C8292}">
   <dimension ref="A1:AO110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S82" sqref="S82"/>
+    <sheetView topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28033,208 +28178,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="56" t="s">
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="58">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39">
         <v>45453</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="39" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40">
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="42"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="47"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -32812,6 +32957,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -32828,7 +32974,6 @@
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32856,208 +33001,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="55"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>234</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54"/>
-      <c r="X2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="54"/>
-      <c r="Z2" s="54" t="s">
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="54"/>
-      <c r="AG2" s="55" t="s">
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="55"/>
-      <c r="AI2" s="56" t="s">
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
     </row>
     <row r="3" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="58">
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="39">
         <v>45453</v>
       </c>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="39" t="s">
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="40"/>
+      <c r="AG3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="40">
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="42">
         <v>45454</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="42"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="44"/>
     </row>
     <row r="4" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44"/>
-      <c r="AO4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AO4" s="47"/>
     </row>
     <row r="5" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -37547,6 +37692,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AO4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AO1"/>
@@ -37563,7 +37709,6 @@
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AI3:AO3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AO4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37589,204 +37734,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="55"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54" t="s">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55" t="s">
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56" t="s">
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57" t="s">
         <v>297</v>
       </c>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="58"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="58">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="39">
         <v>45453</v>
       </c>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="40">
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42">
         <v>45454</v>
       </c>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="47"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -40420,6 +40565,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -40436,7 +40582,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -40462,200 +40607,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="52" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52" t="s">
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="53"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="55"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="48"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="54" t="s">
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="54" t="s">
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="54"/>
-      <c r="Y2" s="54" t="s">
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="54"/>
-      <c r="AF2" s="55" t="s">
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="58"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54" t="s">
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54" t="s">
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="58">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="39">
         <v>45453</v>
       </c>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="39" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="40"/>
+      <c r="AC3" s="40"/>
+      <c r="AD3" s="40"/>
+      <c r="AE3" s="40"/>
+      <c r="AF3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="44"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="43" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="44"/>
-      <c r="T4" s="44"/>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AG4" s="44"/>
-      <c r="AH4" s="44"/>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="47"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -45092,6 +45237,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
@@ -45108,7 +45254,6 @@
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
